--- a/epitweetr/inst/extdata/countries.xlsx
+++ b/epitweetr/inst/extdata/countries.xlsx
@@ -94,7 +94,32 @@
     <t xml:space="preserve">Southern Asia</t>
   </si>
   <si>
-    <t xml:space="preserve">Eastern Mediterranean Region (EMRO - WHO)</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Eastern Mediterranean Region (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WHO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">EMRO)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">60.5284298033</t>
@@ -151,7 +176,32 @@
     <t xml:space="preserve">Southern Europe</t>
   </si>
   <si>
-    <t xml:space="preserve">European Region (EURO - WHO)</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">European Region (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WHO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">EURO)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">19.3044861183</t>
@@ -184,7 +234,32 @@
     <t xml:space="preserve">Northern Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">African Region (AFRO - WHO)</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">African Region (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WHO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AFRO)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">-8.68439978681</t>
@@ -337,7 +412,32 @@
     <t xml:space="preserve">ISO 3166-2:AG</t>
   </si>
   <si>
-    <t xml:space="preserve">Region of the Americas (PAHO - WHO)</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Region of the Americas (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WHO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PAHO)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">-62.38</t>
@@ -439,7 +539,32 @@
     <t xml:space="preserve">Australia and New Zealand</t>
   </si>
   <si>
-    <t xml:space="preserve">Western Pacific Region (WPRO - WHO)</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Western Pacific Region (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WHO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WPRO)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">113.338953078</t>
@@ -556,7 +681,32 @@
     <t xml:space="preserve">ISO 3166-2:BD</t>
   </si>
   <si>
-    <t xml:space="preserve">South-East Asia Region (SEARO - WHO)</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">South-East Asia Region (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WHO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SEARO)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">88.0844222351</t>
@@ -5976,20 +6126,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6011,13 +6153,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Q250"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+      <selection pane="topLeft" activeCell="L254" activeCellId="0" sqref="L254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6091,7 +6233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>17</v>
       </c>
@@ -6119,10 +6261,10 @@
       <c r="J2" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="1"/>
       <c r="N2" s="0" t="s">
         <v>24</v>
       </c>
@@ -6136,7 +6278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>28</v>
       </c>
@@ -6164,8 +6306,8 @@
       <c r="J3" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
       <c r="N3" s="0" t="s">
         <v>34</v>
       </c>
@@ -6179,7 +6321,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>37</v>
       </c>
@@ -6207,10 +6349,10 @@
       <c r="J4" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="0" t="s">
         <v>43</v>
       </c>
@@ -6224,7 +6366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>47</v>
       </c>
@@ -6252,10 +6394,10 @@
       <c r="J5" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="0" t="s">
         <v>54</v>
       </c>
@@ -6269,7 +6411,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>58</v>
       </c>
@@ -6297,8 +6439,8 @@
       <c r="J6" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="0" t="s">
         <v>64</v>
       </c>
@@ -6312,7 +6454,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>67</v>
       </c>
@@ -6340,10 +6482,10 @@
       <c r="J7" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="1"/>
       <c r="N7" s="0" t="s">
         <v>71</v>
       </c>
@@ -6357,7 +6499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>74</v>
       </c>
@@ -6391,10 +6533,10 @@
       <c r="K8" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="0" t="s">
         <v>80</v>
       </c>
@@ -6408,7 +6550,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>84</v>
       </c>
@@ -6442,8 +6584,8 @@
       <c r="K9" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="0" t="s">
         <v>91</v>
       </c>
@@ -6457,7 +6599,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>94</v>
       </c>
@@ -6473,8 +6615,8 @@
       <c r="E10" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
       <c r="N10" s="0" t="s">
         <v>98</v>
       </c>
@@ -6522,10 +6664,10 @@
       <c r="K11" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="1"/>
       <c r="N11" s="0" t="s">
         <v>105</v>
       </c>
@@ -6573,10 +6715,10 @@
       <c r="K12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="0" t="s">
         <v>113</v>
       </c>
@@ -6590,7 +6732,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>117</v>
       </c>
@@ -6618,10 +6760,10 @@
       <c r="J13" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="0" t="s">
         <v>122</v>
       </c>
@@ -6635,7 +6777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>126</v>
       </c>
@@ -6669,8 +6811,8 @@
       <c r="K14" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
       <c r="N14" s="0" t="s">
         <v>130</v>
       </c>
@@ -6684,7 +6826,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>133</v>
       </c>
@@ -6712,10 +6854,10 @@
       <c r="J15" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="1"/>
       <c r="N15" s="0" t="s">
         <v>139</v>
       </c>
@@ -6729,7 +6871,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>143</v>
       </c>
@@ -6757,10 +6899,10 @@
       <c r="J16" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N16" s="0" t="s">
@@ -6776,7 +6918,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>153</v>
       </c>
@@ -6804,10 +6946,10 @@
       <c r="J17" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" s="1"/>
       <c r="N17" s="0" t="s">
         <v>157</v>
       </c>
@@ -6855,10 +6997,10 @@
       <c r="K18" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="1"/>
       <c r="N18" s="0" t="s">
         <v>165</v>
       </c>
@@ -6872,7 +7014,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>168</v>
       </c>
@@ -6900,10 +7042,10 @@
       <c r="J19" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="0" t="n">
         <v>50</v>
       </c>
@@ -6917,7 +7059,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>173</v>
       </c>
@@ -6945,10 +7087,10 @@
       <c r="J20" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="0" t="s">
         <v>178</v>
       </c>
@@ -6996,10 +7138,10 @@
       <c r="K21" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M21" s="2"/>
+      <c r="M21" s="1"/>
       <c r="N21" s="0" t="s">
         <v>186</v>
       </c>
@@ -7013,7 +7155,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>189</v>
       </c>
@@ -7041,10 +7183,10 @@
       <c r="J22" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" s="1"/>
       <c r="N22" s="0" t="s">
         <v>194</v>
       </c>
@@ -7058,7 +7200,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>198</v>
       </c>
@@ -7086,10 +7228,10 @@
       <c r="J23" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N23" s="0" t="s">
@@ -7139,10 +7281,10 @@
       <c r="K24" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" s="1"/>
       <c r="N24" s="0" t="s">
         <v>211</v>
       </c>
@@ -7156,7 +7298,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>215</v>
       </c>
@@ -7190,10 +7332,10 @@
       <c r="K25" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" s="1"/>
       <c r="N25" s="0" t="s">
         <v>220</v>
       </c>
@@ -7207,7 +7349,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>224</v>
       </c>
@@ -7235,8 +7377,8 @@
       <c r="J26" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
       <c r="N26" s="0" t="s">
         <v>229</v>
       </c>
@@ -7250,7 +7392,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>232</v>
       </c>
@@ -7278,10 +7420,10 @@
       <c r="J27" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" s="1"/>
       <c r="N27" s="0" t="s">
         <v>236</v>
       </c>
@@ -7329,10 +7471,10 @@
       <c r="K28" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" s="1"/>
       <c r="N28" s="0" t="s">
         <v>244</v>
       </c>
@@ -7346,7 +7488,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>248</v>
       </c>
@@ -7380,8 +7522,8 @@
       <c r="K29" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
       <c r="N29" s="0" t="s">
         <v>252</v>
       </c>
@@ -7395,7 +7537,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>255</v>
       </c>
@@ -7423,10 +7565,10 @@
       <c r="J30" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M30" s="2"/>
+      <c r="M30" s="1"/>
       <c r="N30" s="0" t="s">
         <v>259</v>
       </c>
@@ -7440,7 +7582,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>263</v>
       </c>
@@ -7474,10 +7616,10 @@
       <c r="K31" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M31" s="2"/>
+      <c r="M31" s="1"/>
       <c r="N31" s="0" t="s">
         <v>268</v>
       </c>
@@ -7491,7 +7633,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>272</v>
       </c>
@@ -7525,8 +7667,8 @@
       <c r="K32" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
       <c r="N32" s="0" t="s">
         <v>276</v>
       </c>
@@ -7574,10 +7716,10 @@
       <c r="K33" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" s="1"/>
       <c r="N33" s="0" t="s">
         <v>283</v>
       </c>
@@ -7591,7 +7733,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>287</v>
       </c>
@@ -7625,8 +7767,8 @@
       <c r="K34" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
       <c r="N34" s="0" t="s">
         <v>292</v>
       </c>
@@ -7640,7 +7782,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>295</v>
       </c>
@@ -7668,10 +7810,10 @@
       <c r="J35" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M35" s="2"/>
+      <c r="M35" s="1"/>
       <c r="N35" s="0" t="s">
         <v>300</v>
       </c>
@@ -7685,7 +7827,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>304</v>
       </c>
@@ -7713,10 +7855,10 @@
       <c r="J36" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N36" s="0" t="s">
@@ -7732,7 +7874,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>312</v>
       </c>
@@ -7766,10 +7908,10 @@
       <c r="K37" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M37" s="2"/>
+      <c r="M37" s="1"/>
       <c r="N37" s="0" t="s">
         <v>316</v>
       </c>
@@ -7783,7 +7925,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>320</v>
       </c>
@@ -7817,10 +7959,10 @@
       <c r="K38" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M38" s="2"/>
+      <c r="M38" s="1"/>
       <c r="N38" s="0" t="s">
         <v>324</v>
       </c>
@@ -7834,8 +7976,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B39" s="0" t="s">
@@ -7868,10 +8010,10 @@
       <c r="K39" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M39" s="2"/>
+      <c r="M39" s="1"/>
       <c r="N39" s="0" t="s">
         <v>332</v>
       </c>
@@ -7885,7 +8027,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>335</v>
       </c>
@@ -7913,10 +8055,10 @@
       <c r="J40" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M40" s="2"/>
+      <c r="M40" s="1"/>
       <c r="N40" s="0" t="s">
         <v>339</v>
       </c>
@@ -7930,7 +8072,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>343</v>
       </c>
@@ -7964,10 +8106,10 @@
       <c r="K41" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" s="1"/>
       <c r="N41" s="0" t="s">
         <v>347</v>
       </c>
@@ -8009,10 +8151,10 @@
       <c r="J42" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M42" s="2"/>
+      <c r="M42" s="1"/>
       <c r="N42" s="0" t="s">
         <v>355</v>
       </c>
@@ -8026,7 +8168,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>359</v>
       </c>
@@ -8060,8 +8202,8 @@
       <c r="K43" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
       <c r="N43" s="0" t="s">
         <v>363</v>
       </c>
@@ -8075,7 +8217,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>366</v>
       </c>
@@ -8109,10 +8251,10 @@
       <c r="K44" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="2"/>
+      <c r="M44" s="1"/>
       <c r="N44" s="0" t="s">
         <v>370</v>
       </c>
@@ -8126,7 +8268,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>374</v>
       </c>
@@ -8160,10 +8302,10 @@
       <c r="K45" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M45" s="2"/>
+      <c r="M45" s="1"/>
       <c r="N45" s="0" t="s">
         <v>378</v>
       </c>
@@ -8211,10 +8353,10 @@
       <c r="K46" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M46" s="2"/>
+      <c r="M46" s="1"/>
       <c r="N46" s="0" t="s">
         <v>386</v>
       </c>
@@ -8228,7 +8370,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>390</v>
       </c>
@@ -8256,10 +8398,10 @@
       <c r="J47" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M47" s="2"/>
+      <c r="M47" s="1"/>
       <c r="N47" s="0" t="s">
         <v>395</v>
       </c>
@@ -8273,7 +8415,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>399</v>
       </c>
@@ -8301,8 +8443,8 @@
       <c r="J48" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
       <c r="N48" s="0" t="s">
         <v>403</v>
       </c>
@@ -8316,7 +8458,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>406</v>
       </c>
@@ -8344,8 +8486,8 @@
       <c r="J49" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
       <c r="N49" s="0" t="s">
         <v>410</v>
       </c>
@@ -8393,10 +8535,10 @@
       <c r="K50" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M50" s="2"/>
+      <c r="M50" s="1"/>
       <c r="N50" s="0" t="s">
         <v>417</v>
       </c>
@@ -8410,7 +8552,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>421</v>
       </c>
@@ -8444,10 +8586,10 @@
       <c r="K51" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M51" s="2"/>
+      <c r="M51" s="1"/>
       <c r="N51" s="0" t="s">
         <v>425</v>
       </c>
@@ -8461,7 +8603,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>428</v>
       </c>
@@ -8495,8 +8637,8 @@
       <c r="K52" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
       <c r="N52" s="0" t="s">
         <v>432</v>
       </c>
@@ -8510,7 +8652,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>436</v>
       </c>
@@ -8544,10 +8686,10 @@
       <c r="K53" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M53" s="2"/>
+      <c r="M53" s="1"/>
       <c r="N53" s="0" t="s">
         <v>440</v>
       </c>
@@ -8561,7 +8703,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>444</v>
       </c>
@@ -8589,10 +8731,10 @@
       <c r="J54" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L54" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M54" s="2"/>
+      <c r="M54" s="1"/>
       <c r="N54" s="0" t="s">
         <v>448</v>
       </c>
@@ -8640,10 +8782,10 @@
       <c r="K55" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M55" s="2"/>
+      <c r="M55" s="1"/>
       <c r="N55" s="0" t="s">
         <v>454</v>
       </c>
@@ -8657,7 +8799,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>458</v>
       </c>
@@ -8691,10 +8833,10 @@
       <c r="K56" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M56" s="2"/>
+      <c r="M56" s="1"/>
       <c r="N56" s="0" t="s">
         <v>462</v>
       </c>
@@ -8708,7 +8850,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>466</v>
       </c>
@@ -8736,10 +8878,10 @@
       <c r="J57" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N57" s="0" t="s">
@@ -8789,10 +8931,10 @@
       <c r="K58" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L58" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M58" s="2"/>
+      <c r="M58" s="1"/>
       <c r="N58" s="0" t="s">
         <v>478</v>
       </c>
@@ -8806,7 +8948,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>482</v>
       </c>
@@ -8840,8 +8982,8 @@
       <c r="K59" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
       <c r="N59" s="0" t="s">
         <v>486</v>
       </c>
@@ -8855,7 +8997,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>489</v>
       </c>
@@ -8883,10 +9025,10 @@
       <c r="J60" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="L60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N60" s="0" t="s">
@@ -8902,7 +9044,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>497</v>
       </c>
@@ -8930,10 +9072,10 @@
       <c r="J61" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N61" s="0" t="s">
@@ -8949,7 +9091,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>505</v>
       </c>
@@ -8977,10 +9119,10 @@
       <c r="J62" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N62" s="0" t="s">
@@ -8996,7 +9138,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>513</v>
       </c>
@@ -9030,10 +9172,10 @@
       <c r="K63" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M63" s="2"/>
+      <c r="M63" s="1"/>
       <c r="N63" s="0" t="s">
         <v>517</v>
       </c>
@@ -9081,10 +9223,10 @@
       <c r="K64" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L64" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M64" s="2"/>
+      <c r="M64" s="1"/>
       <c r="N64" s="0" t="s">
         <v>525</v>
       </c>
@@ -9132,10 +9274,10 @@
       <c r="K65" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L65" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M65" s="2"/>
+      <c r="M65" s="1"/>
       <c r="N65" s="0" t="s">
         <v>532</v>
       </c>
@@ -9183,10 +9325,10 @@
       <c r="K66" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L66" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M66" s="2"/>
+      <c r="M66" s="1"/>
       <c r="N66" s="0" t="s">
         <v>540</v>
       </c>
@@ -9200,7 +9342,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>544</v>
       </c>
@@ -9228,10 +9370,10 @@
       <c r="J67" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="L67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M67" s="2"/>
+      <c r="M67" s="1"/>
       <c r="N67" s="0" t="s">
         <v>548</v>
       </c>
@@ -9279,10 +9421,10 @@
       <c r="K68" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L68" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M68" s="2"/>
+      <c r="M68" s="1"/>
       <c r="N68" s="0" t="s">
         <v>555</v>
       </c>
@@ -9296,7 +9438,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>559</v>
       </c>
@@ -9330,10 +9472,10 @@
       <c r="K69" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="L69" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M69" s="2"/>
+      <c r="M69" s="1"/>
       <c r="N69" s="0" t="s">
         <v>563</v>
       </c>
@@ -9347,7 +9489,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>567</v>
       </c>
@@ -9381,10 +9523,10 @@
       <c r="K70" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L70" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M70" s="2"/>
+      <c r="M70" s="1"/>
       <c r="N70" s="0" t="s">
         <v>571</v>
       </c>
@@ -9398,7 +9540,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>575</v>
       </c>
@@ -9426,10 +9568,10 @@
       <c r="J71" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L71" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N71" s="0" t="s">
@@ -9445,7 +9587,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>583</v>
       </c>
@@ -9479,10 +9621,10 @@
       <c r="K72" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="L72" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M72" s="2"/>
+      <c r="M72" s="1"/>
       <c r="N72" s="0" t="s">
         <v>587</v>
       </c>
@@ -9496,7 +9638,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>591</v>
       </c>
@@ -9530,8 +9672,8 @@
       <c r="K73" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
       <c r="N73" s="0" t="s">
         <v>595</v>
       </c>
@@ -9545,7 +9687,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>599</v>
       </c>
@@ -9573,8 +9715,8 @@
       <c r="J74" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
       <c r="N74" s="0" t="s">
         <v>603</v>
       </c>
@@ -9588,7 +9730,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>606</v>
       </c>
@@ -9616,10 +9758,10 @@
       <c r="J75" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="L75" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M75" s="2"/>
+      <c r="M75" s="1"/>
       <c r="N75" s="0" t="s">
         <v>98</v>
       </c>
@@ -9633,7 +9775,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>613</v>
       </c>
@@ -9661,10 +9803,10 @@
       <c r="J76" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="L76" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N76" s="0" t="s">
@@ -9680,7 +9822,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>621</v>
       </c>
@@ -9708,10 +9850,10 @@
       <c r="J77" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="L77" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N77" s="0" t="s">
@@ -9727,7 +9869,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>629</v>
       </c>
@@ -9761,8 +9903,8 @@
       <c r="K78" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
       <c r="N78" s="0" t="s">
         <v>633</v>
       </c>
@@ -9776,7 +9918,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>636</v>
       </c>
@@ -9804,8 +9946,8 @@
       <c r="J79" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
       <c r="N79" s="0" t="s">
         <v>640</v>
       </c>
@@ -9819,7 +9961,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>643</v>
       </c>
@@ -9853,8 +9995,8 @@
       <c r="K80" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
       <c r="N80" s="0" t="s">
         <v>647</v>
       </c>
@@ -9868,7 +10010,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>651</v>
       </c>
@@ -9902,10 +10044,10 @@
       <c r="K81" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="L81" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M81" s="2"/>
+      <c r="M81" s="1"/>
       <c r="N81" s="0" t="s">
         <v>655</v>
       </c>
@@ -9919,7 +10061,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>659</v>
       </c>
@@ -9953,10 +10095,10 @@
       <c r="K82" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="L82" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M82" s="2"/>
+      <c r="M82" s="1"/>
       <c r="N82" s="0" t="s">
         <v>663</v>
       </c>
@@ -9970,7 +10112,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>667</v>
       </c>
@@ -9998,10 +10140,10 @@
       <c r="J83" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L83" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M83" s="2"/>
+      <c r="M83" s="1"/>
       <c r="N83" s="0" t="s">
         <v>671</v>
       </c>
@@ -10015,7 +10157,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>675</v>
       </c>
@@ -10043,10 +10185,10 @@
       <c r="J84" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L84" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N84" s="0" t="s">
@@ -10062,7 +10204,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>683</v>
       </c>
@@ -10096,10 +10238,10 @@
       <c r="K85" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L85" s="2" t="s">
+      <c r="L85" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M85" s="2"/>
+      <c r="M85" s="1"/>
       <c r="N85" s="0" t="s">
         <v>687</v>
       </c>
@@ -10113,7 +10255,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>691</v>
       </c>
@@ -10141,8 +10283,8 @@
       <c r="J86" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
       <c r="N86" s="0" t="s">
         <v>695</v>
       </c>
@@ -10156,7 +10298,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>698</v>
       </c>
@@ -10184,10 +10326,10 @@
       <c r="J87" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L87" s="2" t="s">
+      <c r="L87" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N87" s="0" t="s">
@@ -10203,7 +10345,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>706</v>
       </c>
@@ -10231,8 +10373,8 @@
       <c r="J88" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
       <c r="N88" s="0" t="s">
         <v>710</v>
       </c>
@@ -10280,10 +10422,10 @@
       <c r="K89" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="L89" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M89" s="2"/>
+      <c r="M89" s="1"/>
       <c r="N89" s="0" t="s">
         <v>718</v>
       </c>
@@ -10297,7 +10439,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>721</v>
       </c>
@@ -10331,8 +10473,8 @@
       <c r="K90" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
       <c r="N90" s="0" t="s">
         <v>725</v>
       </c>
@@ -10346,7 +10488,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>728</v>
       </c>
@@ -10374,8 +10516,8 @@
       <c r="J91" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
       <c r="N91" s="0" t="s">
         <v>733</v>
       </c>
@@ -10423,10 +10565,10 @@
       <c r="K92" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="L92" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M92" s="2"/>
+      <c r="M92" s="1"/>
       <c r="N92" s="0" t="s">
         <v>740</v>
       </c>
@@ -10440,7 +10582,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>744</v>
       </c>
@@ -10474,8 +10616,8 @@
       <c r="K93" s="0" t="n">
         <v>830</v>
       </c>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
       <c r="N93" s="0" t="s">
         <v>749</v>
       </c>
@@ -10489,7 +10631,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>752</v>
       </c>
@@ -10523,10 +10665,10 @@
       <c r="K94" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="L94" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M94" s="2"/>
+      <c r="M94" s="1"/>
       <c r="N94" s="0" t="s">
         <v>756</v>
       </c>
@@ -10540,7 +10682,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>760</v>
       </c>
@@ -10574,10 +10716,10 @@
       <c r="K95" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L95" s="2" t="s">
+      <c r="L95" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M95" s="2"/>
+      <c r="M95" s="1"/>
       <c r="N95" s="0" t="s">
         <v>764</v>
       </c>
@@ -10625,10 +10767,10 @@
       <c r="K96" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="L96" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M96" s="2"/>
+      <c r="M96" s="1"/>
       <c r="N96" s="0" t="s">
         <v>772</v>
       </c>
@@ -10676,10 +10818,10 @@
       <c r="K97" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L97" s="2" t="s">
+      <c r="L97" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M97" s="2"/>
+      <c r="M97" s="1"/>
       <c r="N97" s="0" t="s">
         <v>780</v>
       </c>
@@ -10693,7 +10835,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>784</v>
       </c>
@@ -10721,8 +10863,8 @@
       <c r="J98" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
       <c r="N98" s="0" t="s">
         <v>788</v>
       </c>
@@ -10736,7 +10878,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>791</v>
       </c>
@@ -10764,8 +10906,8 @@
       <c r="J99" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
       <c r="N99" s="0" t="s">
         <v>795</v>
       </c>
@@ -10813,10 +10955,10 @@
       <c r="K100" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="L100" s="2" t="s">
+      <c r="L100" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M100" s="2"/>
+      <c r="M100" s="1"/>
       <c r="N100" s="0" t="s">
         <v>802</v>
       </c>
@@ -10830,7 +10972,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>806</v>
       </c>
@@ -10858,8 +11000,8 @@
       <c r="J101" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
       <c r="N101" s="0" t="s">
         <v>810</v>
       </c>
@@ -10873,7 +11015,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>813</v>
       </c>
@@ -10901,10 +11043,10 @@
       <c r="J102" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="L102" s="2" t="s">
+      <c r="L102" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N102" s="0" t="s">
@@ -10920,7 +11062,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>821</v>
       </c>
@@ -10948,10 +11090,10 @@
       <c r="J103" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="L103" s="2" t="s">
+      <c r="L103" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="1" t="s">
         <v>825</v>
       </c>
       <c r="N103" s="0" t="s">
@@ -10967,7 +11109,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>830</v>
       </c>
@@ -10995,10 +11137,10 @@
       <c r="J104" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="L104" s="2" t="s">
+      <c r="L104" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M104" s="2"/>
+      <c r="M104" s="1"/>
       <c r="N104" s="0" t="s">
         <v>834</v>
       </c>
@@ -11012,7 +11154,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>838</v>
       </c>
@@ -11040,10 +11182,10 @@
       <c r="J105" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="L105" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M105" s="2"/>
+      <c r="M105" s="1"/>
       <c r="N105" s="0" t="s">
         <v>842</v>
       </c>
@@ -11057,7 +11199,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>846</v>
       </c>
@@ -11085,10 +11227,10 @@
       <c r="J106" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="L106" s="2" t="s">
+      <c r="L106" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M106" s="2"/>
+      <c r="M106" s="1"/>
       <c r="N106" s="0" t="s">
         <v>850</v>
       </c>
@@ -11102,7 +11244,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>854</v>
       </c>
@@ -11130,10 +11272,10 @@
       <c r="J107" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L107" s="2" t="s">
+      <c r="L107" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M107" s="2"/>
+      <c r="M107" s="1"/>
       <c r="N107" s="0" t="s">
         <v>858</v>
       </c>
@@ -11147,7 +11289,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>862</v>
       </c>
@@ -11175,10 +11317,10 @@
       <c r="J108" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="L108" s="2" t="s">
+      <c r="L108" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N108" s="0" t="s">
@@ -11194,7 +11336,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>870</v>
       </c>
@@ -11222,8 +11364,8 @@
       <c r="J109" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
       <c r="N109" s="0" t="s">
         <v>874</v>
       </c>
@@ -11237,7 +11379,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>877</v>
       </c>
@@ -11265,10 +11407,10 @@
       <c r="J110" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L110" s="2" t="s">
+      <c r="L110" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M110" s="2"/>
+      <c r="M110" s="1"/>
       <c r="N110" s="0" t="s">
         <v>881</v>
       </c>
@@ -11282,7 +11424,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>885</v>
       </c>
@@ -11310,10 +11452,10 @@
       <c r="J111" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L111" s="2" t="s">
+      <c r="L111" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N111" s="0" t="s">
@@ -11363,10 +11505,10 @@
       <c r="K112" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L112" s="2" t="s">
+      <c r="L112" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M112" s="2"/>
+      <c r="M112" s="1"/>
       <c r="N112" s="0" t="s">
         <v>897</v>
       </c>
@@ -11380,7 +11522,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>901</v>
       </c>
@@ -11408,10 +11550,10 @@
       <c r="J113" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L113" s="2" t="s">
+      <c r="L113" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M113" s="2"/>
+      <c r="M113" s="1"/>
       <c r="N113" s="0" t="s">
         <v>905</v>
       </c>
@@ -11425,7 +11567,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>909</v>
       </c>
@@ -11459,8 +11601,8 @@
       <c r="K114" s="0" t="n">
         <v>830</v>
       </c>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
       <c r="N114" s="0" t="s">
         <v>913</v>
       </c>
@@ -11474,7 +11616,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>916</v>
       </c>
@@ -11502,10 +11644,10 @@
       <c r="J115" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L115" s="2" t="s">
+      <c r="L115" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M115" s="2"/>
+      <c r="M115" s="1"/>
       <c r="N115" s="0" t="s">
         <v>920</v>
       </c>
@@ -11519,7 +11661,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>924</v>
       </c>
@@ -11547,10 +11689,10 @@
       <c r="J116" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="L116" s="2" t="s">
+      <c r="L116" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M116" s="2"/>
+      <c r="M116" s="1"/>
       <c r="N116" s="0" t="s">
         <v>929</v>
       </c>
@@ -11564,7 +11706,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>933</v>
       </c>
@@ -11598,10 +11740,10 @@
       <c r="K117" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L117" s="2" t="s">
+      <c r="L117" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M117" s="2"/>
+      <c r="M117" s="1"/>
       <c r="N117" s="0" t="s">
         <v>937</v>
       </c>
@@ -11615,7 +11757,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>941</v>
       </c>
@@ -11643,10 +11785,10 @@
       <c r="J118" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="L118" s="2" t="s">
+      <c r="L118" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M118" s="2"/>
+      <c r="M118" s="1"/>
       <c r="N118" s="0" t="s">
         <v>945</v>
       </c>
@@ -11660,7 +11802,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>948</v>
       </c>
@@ -11688,10 +11830,10 @@
       <c r="J119" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L119" s="2" t="s">
+      <c r="L119" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M119" s="2"/>
+      <c r="M119" s="1"/>
       <c r="N119" s="0" t="s">
         <v>952</v>
       </c>
@@ -11705,7 +11847,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>956</v>
       </c>
@@ -11733,10 +11875,10 @@
       <c r="J120" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L120" s="2" t="s">
+      <c r="L120" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M120" s="2"/>
+      <c r="M120" s="1"/>
       <c r="N120" s="0" t="s">
         <v>960</v>
       </c>
@@ -11750,7 +11892,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>964</v>
       </c>
@@ -11778,10 +11920,10 @@
       <c r="J121" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L121" s="2" t="s">
+      <c r="L121" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M121" s="2"/>
+      <c r="M121" s="1"/>
       <c r="N121" s="0" t="s">
         <v>968</v>
       </c>
@@ -11795,7 +11937,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>972</v>
       </c>
@@ -11823,10 +11965,10 @@
       <c r="J122" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="L122" s="2" t="s">
+      <c r="L122" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M122" s="2"/>
+      <c r="M122" s="1"/>
       <c r="N122" s="0" t="s">
         <v>976</v>
       </c>
@@ -11840,7 +11982,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>980</v>
       </c>
@@ -11868,10 +12010,10 @@
       <c r="J123" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="L123" s="2" t="s">
+      <c r="L123" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M123" s="2"/>
+      <c r="M123" s="1"/>
       <c r="N123" s="0" t="s">
         <v>984</v>
       </c>
@@ -11885,7 +12027,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>988</v>
       </c>
@@ -11913,10 +12055,10 @@
       <c r="J124" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="L124" s="2" t="s">
+      <c r="L124" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N124" s="0" t="s">
@@ -11932,7 +12074,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>996</v>
       </c>
@@ -11960,10 +12102,10 @@
       <c r="J125" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L125" s="2" t="s">
+      <c r="L125" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M125" s="2"/>
+      <c r="M125" s="1"/>
       <c r="N125" s="0" t="s">
         <v>1000</v>
       </c>
@@ -11977,7 +12119,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>1004</v>
       </c>
@@ -12011,10 +12153,10 @@
       <c r="K126" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="L126" s="2" t="s">
+      <c r="L126" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M126" s="2"/>
+      <c r="M126" s="1"/>
       <c r="N126" s="0" t="s">
         <v>1008</v>
       </c>
@@ -12028,7 +12170,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>1012</v>
       </c>
@@ -12062,10 +12204,10 @@
       <c r="K127" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L127" s="2" t="s">
+      <c r="L127" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M127" s="2"/>
+      <c r="M127" s="1"/>
       <c r="N127" s="0" t="s">
         <v>1016</v>
       </c>
@@ -12079,7 +12221,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>1020</v>
       </c>
@@ -12107,10 +12249,10 @@
       <c r="J128" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="L128" s="2" t="s">
+      <c r="L128" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M128" s="2"/>
+      <c r="M128" s="1"/>
       <c r="N128" s="0" t="s">
         <v>1024</v>
       </c>
@@ -12124,7 +12266,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>1028</v>
       </c>
@@ -12152,8 +12294,8 @@
       <c r="J129" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2" t="s">
+      <c r="L129" s="1"/>
+      <c r="M129" s="1" t="s">
         <v>825</v>
       </c>
       <c r="N129" s="0" t="s">
@@ -12169,7 +12311,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>1035</v>
       </c>
@@ -12197,10 +12339,10 @@
       <c r="J130" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="L130" s="2" t="s">
+      <c r="L130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N130" s="0" t="s">
@@ -12216,7 +12358,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>1043</v>
       </c>
@@ -12244,10 +12386,10 @@
       <c r="J131" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="L131" s="2" t="s">
+      <c r="L131" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N131" s="0" t="s">
@@ -12263,7 +12405,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>1051</v>
       </c>
@@ -12291,8 +12433,8 @@
       <c r="J132" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
       <c r="N132" s="0" t="s">
         <v>1055</v>
       </c>
@@ -12306,7 +12448,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>1058</v>
       </c>
@@ -12334,10 +12476,10 @@
       <c r="J133" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L133" s="2" t="s">
+      <c r="L133" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M133" s="2"/>
+      <c r="M133" s="1"/>
       <c r="N133" s="0" t="s">
         <v>1062</v>
       </c>
@@ -12351,7 +12493,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>1066</v>
       </c>
@@ -12385,10 +12527,10 @@
       <c r="K134" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L134" s="2" t="s">
+      <c r="L134" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M134" s="2"/>
+      <c r="M134" s="1"/>
       <c r="N134" s="0" t="s">
         <v>1070</v>
       </c>
@@ -12402,7 +12544,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>1074</v>
       </c>
@@ -12436,10 +12578,10 @@
       <c r="K135" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L135" s="2" t="s">
+      <c r="L135" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M135" s="2"/>
+      <c r="M135" s="1"/>
       <c r="N135" s="0" t="s">
         <v>1078</v>
       </c>
@@ -12453,7 +12595,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>1082</v>
       </c>
@@ -12481,10 +12623,10 @@
       <c r="J136" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="L136" s="2" t="s">
+      <c r="L136" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M136" s="2"/>
+      <c r="M136" s="1"/>
       <c r="N136" s="0" t="s">
         <v>1086</v>
       </c>
@@ -12498,7 +12640,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>1090</v>
       </c>
@@ -12526,10 +12668,10 @@
       <c r="J137" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="L137" s="2" t="s">
+      <c r="L137" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M137" s="2"/>
+      <c r="M137" s="1"/>
       <c r="N137" s="0" t="s">
         <v>1094</v>
       </c>
@@ -12543,7 +12685,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>1097</v>
       </c>
@@ -12577,10 +12719,10 @@
       <c r="K138" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L138" s="2" t="s">
+      <c r="L138" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M138" s="2"/>
+      <c r="M138" s="1"/>
       <c r="N138" s="0" t="s">
         <v>1101</v>
       </c>
@@ -12594,7 +12736,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>1105</v>
       </c>
@@ -12622,10 +12764,10 @@
       <c r="J139" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L139" s="2" t="s">
+      <c r="L139" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N139" s="0" t="s">
@@ -12641,7 +12783,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>1112</v>
       </c>
@@ -12669,10 +12811,10 @@
       <c r="J140" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="L140" s="2" t="s">
+      <c r="L140" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M140" s="2"/>
+      <c r="M140" s="1"/>
       <c r="N140" s="0" t="s">
         <v>1116</v>
       </c>
@@ -12686,7 +12828,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>1119</v>
       </c>
@@ -12720,8 +12862,8 @@
       <c r="K141" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
       <c r="N141" s="0" t="s">
         <v>1123</v>
       </c>
@@ -12735,7 +12877,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>1126</v>
       </c>
@@ -12769,10 +12911,10 @@
       <c r="K142" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L142" s="2" t="s">
+      <c r="L142" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M142" s="2"/>
+      <c r="M142" s="1"/>
       <c r="N142" s="0" t="s">
         <v>1130</v>
       </c>
@@ -12786,7 +12928,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>1134</v>
       </c>
@@ -12820,10 +12962,10 @@
       <c r="K143" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L143" s="2" t="s">
+      <c r="L143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M143" s="2"/>
+      <c r="M143" s="1"/>
       <c r="N143" s="0" t="s">
         <v>1138</v>
       </c>
@@ -12837,7 +12979,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>1141</v>
       </c>
@@ -12871,8 +13013,8 @@
       <c r="K144" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
       <c r="N144" s="0" t="s">
         <v>1145</v>
       </c>
@@ -12920,10 +13062,10 @@
       <c r="K145" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="L145" s="2" t="s">
+      <c r="L145" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M145" s="2"/>
+      <c r="M145" s="1"/>
       <c r="N145" s="0" t="s">
         <v>1152</v>
       </c>
@@ -12937,7 +13079,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>732</v>
       </c>
@@ -12965,10 +13107,10 @@
       <c r="J146" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="L146" s="2" t="s">
+      <c r="L146" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M146" s="2"/>
+      <c r="M146" s="1"/>
       <c r="N146" s="0" t="s">
         <v>1159</v>
       </c>
@@ -12982,7 +13124,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>1162</v>
       </c>
@@ -13010,10 +13152,10 @@
       <c r="J147" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="L147" s="2" t="s">
+      <c r="L147" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M147" s="2"/>
+      <c r="M147" s="1"/>
       <c r="N147" s="0" t="s">
         <v>1166</v>
       </c>
@@ -13027,7 +13169,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>1170</v>
       </c>
@@ -13055,10 +13197,10 @@
       <c r="J148" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="L148" s="2" t="s">
+      <c r="L148" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M148" s="2"/>
+      <c r="M148" s="1"/>
       <c r="N148" s="0" t="s">
         <v>1174</v>
       </c>
@@ -13072,7 +13214,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>1177</v>
       </c>
@@ -13100,10 +13242,10 @@
       <c r="J149" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L149" s="2" t="s">
+      <c r="L149" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M149" s="2"/>
+      <c r="M149" s="1"/>
       <c r="N149" s="0" t="s">
         <v>1181</v>
       </c>
@@ -13117,7 +13259,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>1185</v>
       </c>
@@ -13145,10 +13287,10 @@
       <c r="J150" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L150" s="2" t="s">
+      <c r="L150" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M150" s="2"/>
+      <c r="M150" s="1"/>
       <c r="N150" s="0" t="s">
         <v>1189</v>
       </c>
@@ -13162,7 +13304,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>1193</v>
       </c>
@@ -13196,8 +13338,8 @@
       <c r="K151" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
       <c r="N151" s="0" t="s">
         <v>1197</v>
       </c>
@@ -13211,7 +13353,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>1200</v>
       </c>
@@ -13239,10 +13381,10 @@
       <c r="J152" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="L152" s="2" t="s">
+      <c r="L152" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M152" s="2"/>
+      <c r="M152" s="1"/>
       <c r="N152" s="0" t="s">
         <v>1204</v>
       </c>
@@ -13256,7 +13398,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>1208</v>
       </c>
@@ -13290,10 +13432,10 @@
       <c r="K153" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L153" s="2" t="s">
+      <c r="L153" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M153" s="2"/>
+      <c r="M153" s="1"/>
       <c r="N153" s="0" t="s">
         <v>1212</v>
       </c>
@@ -13307,7 +13449,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>1216</v>
       </c>
@@ -13335,10 +13477,10 @@
       <c r="J154" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="L154" s="2" t="s">
+      <c r="L154" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M154" s="2"/>
+      <c r="M154" s="1"/>
       <c r="N154" s="0" t="s">
         <v>1220</v>
       </c>
@@ -13352,7 +13494,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>1224</v>
       </c>
@@ -13386,10 +13528,10 @@
       <c r="K155" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="L155" s="2" t="s">
+      <c r="L155" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M155" s="2"/>
+      <c r="M155" s="1"/>
       <c r="N155" s="0" t="s">
         <v>1228</v>
       </c>
@@ -13403,7 +13545,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>1232</v>
       </c>
@@ -13431,10 +13573,10 @@
       <c r="J156" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="L156" s="2" t="s">
+      <c r="L156" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M156" s="2"/>
+      <c r="M156" s="1"/>
       <c r="N156" s="0" t="s">
         <v>1236</v>
       </c>
@@ -13448,7 +13590,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>1239</v>
       </c>
@@ -13476,10 +13618,10 @@
       <c r="J157" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="L157" s="2" t="s">
+      <c r="L157" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M157" s="2"/>
+      <c r="M157" s="1"/>
       <c r="N157" s="0" t="s">
         <v>1243</v>
       </c>
@@ -13493,7 +13635,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>1247</v>
       </c>
@@ -13521,10 +13663,10 @@
       <c r="J158" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="L158" s="2" t="s">
+      <c r="L158" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N158" s="0" t="s">
@@ -13540,7 +13682,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>1255</v>
       </c>
@@ -13568,8 +13710,8 @@
       <c r="J159" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
       <c r="N159" s="0" t="s">
         <v>1259</v>
       </c>
@@ -13583,7 +13725,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>1263</v>
       </c>
@@ -13611,10 +13753,10 @@
       <c r="J160" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="L160" s="2" t="s">
+      <c r="L160" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M160" s="2"/>
+      <c r="M160" s="1"/>
       <c r="N160" s="0" t="s">
         <v>1267</v>
       </c>
@@ -13662,10 +13804,10 @@
       <c r="K161" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="L161" s="2" t="s">
+      <c r="L161" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M161" s="2"/>
+      <c r="M161" s="1"/>
       <c r="N161" s="0" t="s">
         <v>1275</v>
       </c>
@@ -13679,7 +13821,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>1279</v>
       </c>
@@ -13713,10 +13855,10 @@
       <c r="K162" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L162" s="2" t="s">
+      <c r="L162" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M162" s="2"/>
+      <c r="M162" s="1"/>
       <c r="N162" s="0" t="s">
         <v>1283</v>
       </c>
@@ -13730,7 +13872,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>1287</v>
       </c>
@@ -13764,10 +13906,10 @@
       <c r="K163" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L163" s="2" t="s">
+      <c r="L163" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M163" s="2"/>
+      <c r="M163" s="1"/>
       <c r="N163" s="0" t="s">
         <v>1291</v>
       </c>
@@ -13781,7 +13923,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>1295</v>
       </c>
@@ -13809,10 +13951,10 @@
       <c r="J164" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="L164" s="2" t="s">
+      <c r="L164" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M164" s="2"/>
+      <c r="M164" s="1"/>
       <c r="N164" s="0" t="n">
         <v>-170</v>
       </c>
@@ -13826,7 +13968,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>1301</v>
       </c>
@@ -13854,8 +13996,8 @@
       <c r="J165" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="L165" s="2"/>
-      <c r="M165" s="2"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
       <c r="N165" s="0" t="s">
         <v>1305</v>
       </c>
@@ -13869,7 +14011,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>1308</v>
       </c>
@@ -13897,8 +14039,8 @@
       <c r="J166" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
       <c r="N166" s="0" t="s">
         <v>1312</v>
       </c>
@@ -13912,7 +14054,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>1315</v>
       </c>
@@ -13940,10 +14082,10 @@
       <c r="J167" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="L167" s="2" t="s">
+      <c r="L167" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="1" t="s">
         <v>825</v>
       </c>
       <c r="N167" s="0" t="s">
@@ -13959,7 +14101,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>1323</v>
       </c>
@@ -13987,10 +14129,10 @@
       <c r="J168" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L168" s="2" t="s">
+      <c r="L168" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M168" s="2"/>
+      <c r="M168" s="1"/>
       <c r="N168" s="0" t="s">
         <v>1327</v>
       </c>
@@ -14004,7 +14146,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>1331</v>
       </c>
@@ -14032,10 +14174,10 @@
       <c r="J169" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="L169" s="2" t="s">
+      <c r="L169" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M169" s="2"/>
+      <c r="M169" s="1"/>
       <c r="N169" s="0" t="s">
         <v>1335</v>
       </c>
@@ -14049,7 +14191,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>1339</v>
       </c>
@@ -14077,10 +14219,10 @@
       <c r="J170" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="L170" s="2" t="s">
+      <c r="L170" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M170" s="2"/>
+      <c r="M170" s="1"/>
       <c r="N170" s="0" t="s">
         <v>1343</v>
       </c>
@@ -14094,7 +14236,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>1346</v>
       </c>
@@ -14122,10 +14264,10 @@
       <c r="J171" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L171" s="2" t="s">
+      <c r="L171" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M171" s="2"/>
+      <c r="M171" s="1"/>
       <c r="N171" s="0" t="s">
         <v>1350</v>
       </c>
@@ -14173,10 +14315,10 @@
       <c r="K172" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="L172" s="2" t="s">
+      <c r="L172" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M172" s="2"/>
+      <c r="M172" s="1"/>
       <c r="N172" s="0" t="s">
         <v>1358</v>
       </c>
@@ -14190,7 +14332,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>1362</v>
       </c>
@@ -14218,10 +14360,10 @@
       <c r="J173" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="L173" s="2" t="s">
+      <c r="L173" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M173" s="2"/>
+      <c r="M173" s="1"/>
       <c r="N173" s="0" t="s">
         <v>1366</v>
       </c>
@@ -14269,10 +14411,10 @@
       <c r="K174" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L174" s="2" t="s">
+      <c r="L174" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M174" s="2"/>
+      <c r="M174" s="1"/>
       <c r="N174" s="0" t="s">
         <v>1374</v>
       </c>
@@ -14320,10 +14462,10 @@
       <c r="K175" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L175" s="2" t="s">
+      <c r="L175" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M175" s="2"/>
+      <c r="M175" s="1"/>
       <c r="N175" s="0" t="s">
         <v>1382</v>
       </c>
@@ -14337,7 +14479,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>1386</v>
       </c>
@@ -14365,10 +14507,10 @@
       <c r="J176" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="L176" s="2" t="s">
+      <c r="L176" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M176" s="2"/>
+      <c r="M176" s="1"/>
       <c r="N176" s="0" t="s">
         <v>1390</v>
       </c>
@@ -14382,7 +14524,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>1394</v>
       </c>
@@ -14410,8 +14552,8 @@
       <c r="J177" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
       <c r="N177" s="0" t="s">
         <v>1398</v>
       </c>
@@ -14425,7 +14567,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>1401</v>
       </c>
@@ -14453,10 +14595,10 @@
       <c r="J178" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="L178" s="2" t="s">
+      <c r="L178" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N178" s="0" t="s">
@@ -14472,7 +14614,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>1409</v>
       </c>
@@ -14500,10 +14642,10 @@
       <c r="J179" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L179" s="2" t="s">
+      <c r="L179" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N179" s="0" t="s">
@@ -14519,7 +14661,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>1417</v>
       </c>
@@ -14553,8 +14695,8 @@
       <c r="K180" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
       <c r="N180" s="0" t="s">
         <v>1421</v>
       </c>
@@ -14568,7 +14710,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>1425</v>
       </c>
@@ -14596,10 +14738,10 @@
       <c r="J181" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L181" s="2" t="s">
+      <c r="L181" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M181" s="2"/>
+      <c r="M181" s="1"/>
       <c r="N181" s="0" t="s">
         <v>1429</v>
       </c>
@@ -14613,7 +14755,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>1433</v>
       </c>
@@ -14647,8 +14789,8 @@
       <c r="K182" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L182" s="2"/>
-      <c r="M182" s="2"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
       <c r="N182" s="0" t="s">
         <v>1437</v>
       </c>
@@ -14662,7 +14804,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>1440</v>
       </c>
@@ -14690,10 +14832,10 @@
       <c r="J183" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="L183" s="2" t="s">
+      <c r="L183" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N183" s="0" t="s">
@@ -14709,7 +14851,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>1448</v>
       </c>
@@ -14737,10 +14879,10 @@
       <c r="J184" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="L184" s="2" t="s">
+      <c r="L184" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M184" s="2"/>
+      <c r="M184" s="1"/>
       <c r="N184" s="0" t="s">
         <v>1452</v>
       </c>
@@ -14754,7 +14896,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>1456</v>
       </c>
@@ -14788,10 +14930,10 @@
       <c r="K185" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L185" s="2" t="s">
+      <c r="L185" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M185" s="2"/>
+      <c r="M185" s="1"/>
       <c r="N185" s="0" t="s">
         <v>1460</v>
       </c>
@@ -14805,7 +14947,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>1464</v>
       </c>
@@ -14839,8 +14981,8 @@
       <c r="K186" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L186" s="2"/>
-      <c r="M186" s="2"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
       <c r="N186" s="0" t="s">
         <v>1468</v>
       </c>
@@ -14854,7 +14996,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>1470</v>
       </c>
@@ -14888,8 +15030,8 @@
       <c r="K187" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L187" s="2"/>
-      <c r="M187" s="2"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
       <c r="N187" s="0" t="s">
         <v>1474</v>
       </c>
@@ -14937,10 +15079,10 @@
       <c r="K188" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L188" s="2" t="s">
+      <c r="L188" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M188" s="2"/>
+      <c r="M188" s="1"/>
       <c r="N188" s="0" t="s">
         <v>1481</v>
       </c>
@@ -14988,10 +15130,10 @@
       <c r="K189" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L189" s="2" t="s">
+      <c r="L189" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M189" s="2"/>
+      <c r="M189" s="1"/>
       <c r="N189" s="0" t="s">
         <v>1488</v>
       </c>
@@ -15005,7 +15147,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>1491</v>
       </c>
@@ -15039,8 +15181,8 @@
       <c r="K190" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L190" s="2"/>
-      <c r="M190" s="2"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
       <c r="N190" s="0" t="s">
         <v>1495</v>
       </c>
@@ -15054,7 +15196,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>1498</v>
       </c>
@@ -15082,8 +15224,8 @@
       <c r="J191" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="L191" s="2"/>
-      <c r="M191" s="2"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
       <c r="N191" s="0" t="s">
         <v>1502</v>
       </c>
@@ -15131,10 +15273,10 @@
       <c r="K192" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L192" s="2" t="s">
+      <c r="L192" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M192" s="2"/>
+      <c r="M192" s="1"/>
       <c r="N192" s="0" t="s">
         <v>1509</v>
       </c>
@@ -15148,7 +15290,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>1512</v>
       </c>
@@ -15176,10 +15318,10 @@
       <c r="J193" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="L193" s="2" t="s">
+      <c r="L193" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M193" s="2"/>
+      <c r="M193" s="1"/>
       <c r="N193" s="0" t="s">
         <v>1516</v>
       </c>
@@ -15193,7 +15335,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>1518</v>
       </c>
@@ -15221,10 +15363,10 @@
       <c r="J194" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L194" s="2" t="s">
+      <c r="L194" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M194" s="2"/>
+      <c r="M194" s="1"/>
       <c r="N194" s="0" t="s">
         <v>1522</v>
       </c>
@@ -15238,7 +15380,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>1525</v>
       </c>
@@ -15272,10 +15414,10 @@
       <c r="K195" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="L195" s="2" t="s">
+      <c r="L195" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M195" s="2"/>
+      <c r="M195" s="1"/>
       <c r="N195" s="0" t="s">
         <v>1529</v>
       </c>
@@ -15289,7 +15431,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>1532</v>
       </c>
@@ -15317,10 +15459,10 @@
       <c r="J196" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L196" s="2" t="s">
+      <c r="L196" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M196" s="2"/>
+      <c r="M196" s="1"/>
       <c r="N196" s="0" t="s">
         <v>1536</v>
       </c>
@@ -15334,7 +15476,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>1540</v>
       </c>
@@ -15368,10 +15510,10 @@
       <c r="K197" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L197" s="2" t="s">
+      <c r="L197" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M197" s="2"/>
+      <c r="M197" s="1"/>
       <c r="N197" s="0" t="s">
         <v>1544</v>
       </c>
@@ -15385,7 +15527,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>1548</v>
       </c>
@@ -15413,10 +15555,10 @@
       <c r="J198" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L198" s="2" t="s">
+      <c r="L198" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M198" s="2"/>
+      <c r="M198" s="1"/>
       <c r="N198" s="0" t="s">
         <v>1552</v>
       </c>
@@ -15430,7 +15572,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>1556</v>
       </c>
@@ -15464,10 +15606,10 @@
       <c r="K199" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L199" s="2" t="s">
+      <c r="L199" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M199" s="2"/>
+      <c r="M199" s="1"/>
       <c r="N199" s="0" t="s">
         <v>1560</v>
       </c>
@@ -15481,7 +15623,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>1563</v>
       </c>
@@ -15515,10 +15657,10 @@
       <c r="K200" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L200" s="2" t="s">
+      <c r="L200" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M200" s="2"/>
+      <c r="M200" s="1"/>
       <c r="N200" s="0" t="s">
         <v>1567</v>
       </c>
@@ -15532,7 +15674,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>1571</v>
       </c>
@@ -15560,10 +15702,10 @@
       <c r="J201" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="L201" s="2" t="s">
+      <c r="L201" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M201" s="2"/>
+      <c r="M201" s="1"/>
       <c r="N201" s="0" t="s">
         <v>1575</v>
       </c>
@@ -15577,7 +15719,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>1578</v>
       </c>
@@ -15611,8 +15753,8 @@
       <c r="K202" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L202" s="2"/>
-      <c r="M202" s="2"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
       <c r="N202" s="0" t="s">
         <v>1582</v>
       </c>
@@ -15626,7 +15768,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>1585</v>
       </c>
@@ -15654,10 +15796,10 @@
       <c r="J203" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="L203" s="2" t="s">
+      <c r="L203" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N203" s="0" t="s">
@@ -15673,7 +15815,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>1593</v>
       </c>
@@ -15701,10 +15843,10 @@
       <c r="J204" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L204" s="2" t="s">
+      <c r="L204" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N204" s="0" t="s">
@@ -15720,7 +15862,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>1601</v>
       </c>
@@ -15748,10 +15890,10 @@
       <c r="J205" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="L205" s="2" t="s">
+      <c r="L205" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M205" s="2"/>
+      <c r="M205" s="1"/>
       <c r="N205" s="0" t="s">
         <v>1605</v>
       </c>
@@ -15765,7 +15907,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>1609</v>
       </c>
@@ -15799,10 +15941,10 @@
       <c r="K206" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L206" s="2" t="s">
+      <c r="L206" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M206" s="2"/>
+      <c r="M206" s="1"/>
       <c r="N206" s="0" t="s">
         <v>1613</v>
       </c>
@@ -15816,7 +15958,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>1617</v>
       </c>
@@ -15850,10 +15992,10 @@
       <c r="K207" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="L207" s="2" t="s">
+      <c r="L207" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M207" s="2"/>
+      <c r="M207" s="1"/>
       <c r="N207" s="0" t="s">
         <v>1621</v>
       </c>
@@ -15867,7 +16009,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>1625</v>
       </c>
@@ -15901,8 +16043,8 @@
       <c r="K208" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L208" s="2"/>
-      <c r="M208" s="2"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
       <c r="N208" s="0" t="s">
         <v>1629</v>
       </c>
@@ -15916,7 +16058,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>1632</v>
       </c>
@@ -15950,8 +16092,8 @@
       <c r="K209" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
       <c r="N209" s="0" t="s">
         <v>1636</v>
       </c>
@@ -15965,7 +16107,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>1640</v>
       </c>
@@ -15993,10 +16135,10 @@
       <c r="J210" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L210" s="2" t="s">
+      <c r="L210" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N210" s="0" t="s">
@@ -16012,7 +16154,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>1648</v>
       </c>
@@ -16040,10 +16182,10 @@
       <c r="J211" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="L211" s="2" t="s">
+      <c r="L211" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M211" s="2"/>
+      <c r="M211" s="1"/>
       <c r="N211" s="0" t="s">
         <v>1652</v>
       </c>
@@ -16057,7 +16199,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>1656</v>
       </c>
@@ -16085,10 +16227,10 @@
       <c r="J212" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="L212" s="2" t="s">
+      <c r="L212" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M212" s="2"/>
+      <c r="M212" s="1"/>
       <c r="N212" s="0" t="s">
         <v>1660</v>
       </c>
@@ -16136,10 +16278,10 @@
       <c r="K213" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L213" s="2" t="s">
+      <c r="L213" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M213" s="2"/>
+      <c r="M213" s="1"/>
       <c r="N213" s="0" t="s">
         <v>1668</v>
       </c>
@@ -16153,7 +16295,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>1672</v>
       </c>
@@ -16181,8 +16323,8 @@
       <c r="J214" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
       <c r="N214" s="0" t="s">
         <v>1676</v>
       </c>
@@ -16196,7 +16338,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>1679</v>
       </c>
@@ -16230,10 +16372,10 @@
       <c r="K215" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="L215" s="2" t="s">
+      <c r="L215" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M215" s="2"/>
+      <c r="M215" s="1"/>
       <c r="N215" s="0" t="s">
         <v>1683</v>
       </c>
@@ -16247,7 +16389,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>1687</v>
       </c>
@@ -16275,10 +16417,10 @@
       <c r="J216" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="L216" s="2" t="s">
+      <c r="L216" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="1" t="s">
         <v>148</v>
       </c>
       <c r="N216" s="0" t="s">
@@ -16294,7 +16436,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>1695</v>
       </c>
@@ -16322,10 +16464,10 @@
       <c r="J217" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="L217" s="2" t="s">
+      <c r="L217" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M217" s="2"/>
+      <c r="M217" s="1"/>
       <c r="N217" s="0" t="s">
         <v>1699</v>
       </c>
@@ -16339,7 +16481,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>1703</v>
       </c>
@@ -16367,10 +16509,10 @@
       <c r="J218" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L218" s="2" t="s">
+      <c r="L218" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M218" s="2"/>
+      <c r="M218" s="1"/>
       <c r="N218" s="0" t="s">
         <v>1707</v>
       </c>
@@ -16384,7 +16526,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>1711</v>
       </c>
@@ -16412,10 +16554,10 @@
       <c r="J219" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L219" s="2" t="s">
+      <c r="L219" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M219" s="2"/>
+      <c r="M219" s="1"/>
       <c r="N219" s="0" t="s">
         <v>1715</v>
       </c>
@@ -16429,7 +16571,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>1719</v>
       </c>
@@ -16457,10 +16599,10 @@
       <c r="J220" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="L220" s="2" t="s">
+      <c r="L220" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M220" s="2"/>
+      <c r="M220" s="1"/>
       <c r="N220" s="0" t="s">
         <v>1723</v>
       </c>
@@ -16474,7 +16616,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>1727</v>
       </c>
@@ -16508,10 +16650,10 @@
       <c r="K221" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L221" s="2" t="s">
+      <c r="L221" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M221" s="2"/>
+      <c r="M221" s="1"/>
       <c r="N221" s="0" t="s">
         <v>1731</v>
       </c>
@@ -16525,7 +16667,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>1735</v>
       </c>
@@ -16553,10 +16695,10 @@
       <c r="J222" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="L222" s="2" t="s">
+      <c r="L222" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M222" s="2"/>
+      <c r="M222" s="1"/>
       <c r="N222" s="0" t="s">
         <v>1739</v>
       </c>
@@ -16570,7 +16712,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>1743</v>
       </c>
@@ -16598,10 +16740,10 @@
       <c r="J223" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="L223" s="2" t="s">
+      <c r="L223" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M223" s="2"/>
+      <c r="M223" s="1"/>
       <c r="N223" s="0" t="s">
         <v>1747</v>
       </c>
@@ -16615,7 +16757,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>1751</v>
       </c>
@@ -16649,10 +16791,10 @@
       <c r="K224" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="L224" s="2" t="s">
+      <c r="L224" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M224" s="2"/>
+      <c r="M224" s="1"/>
       <c r="N224" s="0" t="s">
         <v>1755</v>
       </c>
@@ -16666,7 +16808,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>1759</v>
       </c>
@@ -16694,8 +16836,8 @@
       <c r="J225" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="L225" s="2"/>
-      <c r="M225" s="2"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
       <c r="N225" s="0" t="s">
         <v>1763</v>
       </c>
@@ -16709,7 +16851,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>1766</v>
       </c>
@@ -16737,10 +16879,10 @@
       <c r="J226" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="L226" s="2" t="s">
+      <c r="L226" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M226" s="2"/>
+      <c r="M226" s="1"/>
       <c r="N226" s="0" t="s">
         <v>1770</v>
       </c>
@@ -16788,10 +16930,10 @@
       <c r="K227" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L227" s="2" t="s">
+      <c r="L227" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M227" s="2"/>
+      <c r="M227" s="1"/>
       <c r="N227" s="0" t="s">
         <v>1777</v>
       </c>
@@ -16805,7 +16947,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>1781</v>
       </c>
@@ -16833,10 +16975,10 @@
       <c r="J228" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="L228" s="2" t="s">
+      <c r="L228" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M228" s="2"/>
+      <c r="M228" s="1"/>
       <c r="N228" s="0" t="s">
         <v>1785</v>
       </c>
@@ -16850,7 +16992,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>1789</v>
       </c>
@@ -16878,10 +17020,10 @@
       <c r="J229" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L229" s="2" t="s">
+      <c r="L229" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M229" s="2"/>
+      <c r="M229" s="1"/>
       <c r="N229" s="0" t="s">
         <v>1793</v>
       </c>
@@ -16895,7 +17037,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>1797</v>
       </c>
@@ -16923,10 +17065,10 @@
       <c r="J230" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="L230" s="2" t="s">
+      <c r="L230" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M230" s="2"/>
+      <c r="M230" s="1"/>
       <c r="N230" s="0" t="s">
         <v>1801</v>
       </c>
@@ -16940,7 +17082,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>1805</v>
       </c>
@@ -16974,8 +17116,8 @@
       <c r="K231" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L231" s="2"/>
-      <c r="M231" s="2"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
       <c r="N231" s="0" t="s">
         <v>1809</v>
       </c>
@@ -16989,7 +17131,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>1812</v>
       </c>
@@ -17017,10 +17159,10 @@
       <c r="J232" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="L232" s="2" t="s">
+      <c r="L232" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M232" s="2"/>
+      <c r="M232" s="1"/>
       <c r="N232" s="0" t="s">
         <v>1816</v>
       </c>
@@ -17034,7 +17176,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>1819</v>
       </c>
@@ -17068,10 +17210,10 @@
       <c r="K233" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L233" s="2" t="s">
+      <c r="L233" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M233" s="2"/>
+      <c r="M233" s="1"/>
       <c r="N233" s="0" t="s">
         <v>1823</v>
       </c>
@@ -17085,7 +17227,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>1827</v>
       </c>
@@ -17113,10 +17255,10 @@
       <c r="J234" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="L234" s="2" t="s">
+      <c r="L234" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M234" s="2"/>
+      <c r="M234" s="1"/>
       <c r="N234" s="0" t="s">
         <v>1831</v>
       </c>
@@ -17130,7 +17272,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>1835</v>
       </c>
@@ -17158,10 +17300,10 @@
       <c r="J235" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L235" s="2" t="s">
+      <c r="L235" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M235" s="2"/>
+      <c r="M235" s="1"/>
       <c r="N235" s="0" t="s">
         <v>1839</v>
       </c>
@@ -17175,7 +17317,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>1843</v>
       </c>
@@ -17203,10 +17345,10 @@
       <c r="J236" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="L236" s="2" t="s">
+      <c r="L236" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M236" s="2"/>
+      <c r="M236" s="1"/>
       <c r="N236" s="0" t="s">
         <v>1847</v>
       </c>
@@ -17248,10 +17390,10 @@
       <c r="J237" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="L237" s="2" t="s">
+      <c r="L237" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M237" s="2"/>
+      <c r="M237" s="1"/>
       <c r="N237" s="0" t="s">
         <v>1855</v>
       </c>
@@ -17265,7 +17407,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>1859</v>
       </c>
@@ -17293,8 +17435,8 @@
       <c r="J238" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="L238" s="2"/>
-      <c r="M238" s="2"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
       <c r="N238" s="0" t="s">
         <v>1863</v>
       </c>
@@ -17342,10 +17484,10 @@
       <c r="K239" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L239" s="2" t="s">
+      <c r="L239" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M239" s="2"/>
+      <c r="M239" s="1"/>
       <c r="N239" s="0" t="s">
         <v>1870</v>
       </c>
@@ -17359,7 +17501,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>1874</v>
       </c>
@@ -17387,10 +17529,10 @@
       <c r="J240" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="L240" s="2" t="s">
+      <c r="L240" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M240" s="2"/>
+      <c r="M240" s="1"/>
       <c r="N240" s="0" t="s">
         <v>1878</v>
       </c>
@@ -17404,7 +17546,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>1882</v>
       </c>
@@ -17432,10 +17574,10 @@
       <c r="J241" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="L241" s="2" t="s">
+      <c r="L241" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M241" s="2"/>
+      <c r="M241" s="1"/>
       <c r="N241" s="0" t="s">
         <v>1886</v>
       </c>
@@ -17483,10 +17625,10 @@
       <c r="K242" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L242" s="2" t="s">
+      <c r="L242" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M242" s="2"/>
+      <c r="M242" s="1"/>
       <c r="N242" s="0" t="s">
         <v>1894</v>
       </c>
@@ -17500,7 +17642,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>1898</v>
       </c>
@@ -17528,10 +17670,10 @@
       <c r="J243" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="L243" s="2" t="s">
+      <c r="L243" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M243" s="2"/>
+      <c r="M243" s="1"/>
       <c r="N243" s="0" t="s">
         <v>1902</v>
       </c>
@@ -17545,7 +17687,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>1906</v>
       </c>
@@ -17579,8 +17721,8 @@
       <c r="K244" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L244" s="2"/>
-      <c r="M244" s="2"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
       <c r="N244" s="0" t="s">
         <v>1910</v>
       </c>
@@ -17594,7 +17736,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>1913</v>
       </c>
@@ -17628,8 +17770,8 @@
       <c r="K245" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="L245" s="2"/>
-      <c r="M245" s="2"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
       <c r="N245" s="0" t="s">
         <v>1917</v>
       </c>
@@ -17643,7 +17785,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>1920</v>
       </c>
@@ -17671,8 +17813,8 @@
       <c r="J246" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="L246" s="2"/>
-      <c r="M246" s="2"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
       <c r="N246" s="0" t="s">
         <v>1924</v>
       </c>
@@ -17686,7 +17828,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>1927</v>
       </c>
@@ -17714,8 +17856,8 @@
       <c r="J247" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="L247" s="2"/>
-      <c r="M247" s="2"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
       <c r="N247" s="0" t="s">
         <v>1931</v>
       </c>
@@ -17729,7 +17871,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>1934</v>
       </c>
@@ -17757,10 +17899,10 @@
       <c r="J248" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="L248" s="2" t="s">
+      <c r="L248" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M248" s="2"/>
+      <c r="M248" s="1"/>
       <c r="N248" s="0" t="s">
         <v>1938</v>
       </c>
@@ -17774,7 +17916,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>1942</v>
       </c>
@@ -17808,10 +17950,10 @@
       <c r="K249" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L249" s="2" t="s">
+      <c r="L249" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M249" s="2"/>
+      <c r="M249" s="1"/>
       <c r="N249" s="0" t="s">
         <v>1946</v>
       </c>
@@ -17825,7 +17967,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>1950</v>
       </c>
@@ -17859,10 +18001,10 @@
       <c r="K250" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L250" s="2" t="s">
+      <c r="L250" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M250" s="2"/>
+      <c r="M250" s="1"/>
       <c r="N250" s="0" t="s">
         <v>1954</v>
       </c>
@@ -17877,7 +18019,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q250"/>
+  <autoFilter ref="A1:Q250">
+    <filterColumn colId="11">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Region of the Americas (PAHO - WHO)"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/epitweetr/inst/extdata/countries.xlsx
+++ b/epitweetr/inst/extdata/countries.xlsx
@@ -3279,8 +3279,8 @@
   </sheetPr>
   <dimension ref="A1:Q250"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q87" activeCellId="0" sqref="Q87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7454,16 +7454,16 @@
         <v>100</v>
       </c>
       <c r="N87" s="0" t="n">
-        <v>19.3098</v>
+        <v>19.25</v>
       </c>
       <c r="O87" s="0" t="n">
-        <v>34.5428</v>
+        <v>34.75</v>
       </c>
       <c r="P87" s="0" t="n">
-        <v>29.6527999</v>
+        <v>24.76</v>
       </c>
       <c r="Q87" s="0" t="n">
-        <v>41.7488784</v>
+        <v>41.73</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/epitweetr/inst/extdata/countries.xlsx
+++ b/epitweetr/inst/extdata/countries.xlsx
@@ -3179,8 +3179,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -3247,12 +3248,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3277,10 +3282,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q250"/>
+  <dimension ref="A1:R250"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q87" activeCellId="0" sqref="Q87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4038,6 +4047,7 @@
       <c r="Q16" s="0" t="n">
         <v>49.0390742051</v>
       </c>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">

--- a/epitweetr/inst/extdata/countries.xlsx
+++ b/epitweetr/inst/extdata/countries.xlsx
@@ -11,7 +11,8 @@
     <sheet name="countries" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">countries!$A$1:$Q$250</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">countries!$A$1:$Q$251</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">countries!$A$1:$Q$250</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="1053">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -3173,6 +3174,15 @@
   </si>
   <si>
     <t xml:space="preserve">ISO 3166-2:ZW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO 3166-2:XK</t>
   </si>
 </sst>
 </file>
@@ -3181,7 +3191,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;BOOL&quot;E&quot;AN&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -3282,14 +3292,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R250"/>
+  <dimension ref="A1:R251"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="L261" activeCellId="0" sqref="L261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15162,8 +15172,50 @@
         <v>-15.6093188</v>
       </c>
     </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>383</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F251" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G251" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I251" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="J251" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M251" s="1"/>
+      <c r="N251" s="0" t="n">
+        <v>19.7664</v>
+      </c>
+      <c r="O251" s="0" t="n">
+        <v>41.7713</v>
+      </c>
+      <c r="P251" s="0" t="n">
+        <v>21.9911</v>
+      </c>
+      <c r="Q251" s="0" t="n">
+        <v>43.2852</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q250"/>
+  <autoFilter ref="A1:Q251"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
